--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.6742797424035</v>
+        <v>101.814756</v>
       </c>
       <c r="H2">
-        <v>86.6742797424035</v>
+        <v>305.444268</v>
       </c>
       <c r="I2">
-        <v>0.2299443731266628</v>
+        <v>0.2429953264021572</v>
       </c>
       <c r="J2">
-        <v>0.2299443731266628</v>
+        <v>0.2429953264021571</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N2">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O2">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P2">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q2">
-        <v>100.3641995745171</v>
+        <v>121.475626580876</v>
       </c>
       <c r="R2">
-        <v>100.3641995745171</v>
+        <v>1093.280639227884</v>
       </c>
       <c r="S2">
-        <v>0.008984535989054607</v>
+        <v>0.009436230793265511</v>
       </c>
       <c r="T2">
-        <v>0.008984535989054607</v>
+        <v>0.009436230793265509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.6742797424035</v>
+        <v>101.814756</v>
       </c>
       <c r="H3">
-        <v>86.6742797424035</v>
+        <v>305.444268</v>
       </c>
       <c r="I3">
-        <v>0.2299443731266628</v>
+        <v>0.2429953264021572</v>
       </c>
       <c r="J3">
-        <v>0.2299443731266628</v>
+        <v>0.2429953264021571</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N3">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O3">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P3">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q3">
-        <v>2468.291876113373</v>
+        <v>3006.681174330888</v>
       </c>
       <c r="R3">
-        <v>2468.291876113373</v>
+        <v>27060.13056897799</v>
       </c>
       <c r="S3">
-        <v>0.2209598371376082</v>
+        <v>0.2335590956088917</v>
       </c>
       <c r="T3">
-        <v>0.2209598371376082</v>
+        <v>0.2335590956088916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.77717960684</v>
+        <v>123.930687</v>
       </c>
       <c r="H4">
-        <v>123.77717960684</v>
+        <v>371.792061</v>
       </c>
       <c r="I4">
-        <v>0.3283773001249046</v>
+        <v>0.2957781260980341</v>
       </c>
       <c r="J4">
-        <v>0.3283773001249046</v>
+        <v>0.2957781260980341</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N4">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O4">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P4">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q4">
-        <v>143.3273814764008</v>
+        <v>147.862239692677</v>
       </c>
       <c r="R4">
-        <v>143.3273814764008</v>
+        <v>1330.760157234093</v>
       </c>
       <c r="S4">
-        <v>0.01283057128488913</v>
+        <v>0.01148594379482626</v>
       </c>
       <c r="T4">
-        <v>0.01283057128488913</v>
+        <v>0.01148594379482626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.77717960684</v>
+        <v>123.930687</v>
       </c>
       <c r="H5">
-        <v>123.77717960684</v>
+        <v>371.792061</v>
       </c>
       <c r="I5">
-        <v>0.3283773001249046</v>
+        <v>0.2957781260980341</v>
       </c>
       <c r="J5">
-        <v>0.3283773001249046</v>
+        <v>0.2957781260980341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N5">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O5">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P5">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q5">
-        <v>3524.900440820403</v>
+        <v>3659.784476866926</v>
       </c>
       <c r="R5">
-        <v>3524.900440820403</v>
+        <v>32938.06029180234</v>
       </c>
       <c r="S5">
-        <v>0.3155467288400154</v>
+        <v>0.2842921823032079</v>
       </c>
       <c r="T5">
-        <v>0.3155467288400154</v>
+        <v>0.2842921823032079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.057536474131</v>
+        <v>115.753432</v>
       </c>
       <c r="H6">
-        <v>101.057536474131</v>
+        <v>347.260296</v>
       </c>
       <c r="I6">
-        <v>0.2681027398592897</v>
+        <v>0.2762619496039445</v>
       </c>
       <c r="J6">
-        <v>0.2681027398592897</v>
+        <v>0.2762619496039445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N6">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O6">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P6">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q6">
-        <v>117.0192448018314</v>
+        <v>138.1059213174053</v>
       </c>
       <c r="R6">
-        <v>117.0192448018314</v>
+        <v>1242.953291856648</v>
       </c>
       <c r="S6">
-        <v>0.01047548449338693</v>
+        <v>0.01072807265250005</v>
       </c>
       <c r="T6">
-        <v>0.01047548449338693</v>
+        <v>0.01072807265250005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.057536474131</v>
+        <v>115.753432</v>
       </c>
       <c r="H7">
-        <v>101.057536474131</v>
+        <v>347.260296</v>
       </c>
       <c r="I7">
-        <v>0.2681027398592897</v>
+        <v>0.2762619496039445</v>
       </c>
       <c r="J7">
-        <v>0.2681027398592897</v>
+        <v>0.2762619496039445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N7">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O7">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P7">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q7">
-        <v>2877.895230747393</v>
+        <v>3418.302793541936</v>
       </c>
       <c r="R7">
-        <v>2877.895230747393</v>
+        <v>30764.72514187742</v>
       </c>
       <c r="S7">
-        <v>0.2576272553659028</v>
+        <v>0.2655338769514444</v>
       </c>
       <c r="T7">
-        <v>0.2576272553659028</v>
+        <v>0.2655338769514444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.426862896942</v>
+        <v>77.499949</v>
       </c>
       <c r="H8">
-        <v>65.426862896942</v>
+        <v>232.499847</v>
       </c>
       <c r="I8">
-        <v>0.1735755868891429</v>
+        <v>0.1849645978958643</v>
       </c>
       <c r="J8">
-        <v>0.1735755868891429</v>
+        <v>0.1849645978958643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N8">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O8">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P8">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q8">
-        <v>75.76082252819384</v>
+        <v>92.46552498501234</v>
       </c>
       <c r="R8">
-        <v>75.76082252819384</v>
+        <v>832.1897248651111</v>
       </c>
       <c r="S8">
-        <v>0.00678205813876448</v>
+        <v>0.007182725117273833</v>
       </c>
       <c r="T8">
-        <v>0.00678205813876448</v>
+        <v>0.007182725117273833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.426862896942</v>
+        <v>77.499949</v>
       </c>
       <c r="H9">
-        <v>65.426862896942</v>
+        <v>232.499847</v>
       </c>
       <c r="I9">
-        <v>0.1735755868891429</v>
+        <v>0.1849645978958643</v>
       </c>
       <c r="J9">
-        <v>0.1735755868891429</v>
+        <v>0.1849645978958643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N9">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O9">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P9">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q9">
-        <v>1863.212416048479</v>
+        <v>2288.643088924202</v>
       </c>
       <c r="R9">
-        <v>1863.212416048479</v>
+        <v>20597.78780031782</v>
       </c>
       <c r="S9">
-        <v>0.1667935287503785</v>
+        <v>0.1777818727785904</v>
       </c>
       <c r="T9">
-        <v>0.1667935287503785</v>
+        <v>0.1777818727785904</v>
       </c>
     </row>
   </sheetData>
